--- a/results/I3_N5_M2_T45_C100_DepCentral_s1_P6_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepCentral_s1_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2377.445140676652</v>
+        <v>839.2658708020173</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.006999969482421875</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.70808500682834</v>
+        <v>25.77665327570422</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.62260060507976</v>
+        <v>10.36248275035611</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.609656274901689</v>
+        <v>7.851700276669249</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2215.410000000001</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>145.34</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -672,23 +672,12 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -777,7 +766,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -799,7 +788,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -846,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -857,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -962,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -986,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40.21636892110521</v>
+        <v>38.03492348172502</v>
       </c>
     </row>
     <row r="7">
@@ -1002,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40.26609208328135</v>
+        <v>35.51610579153741</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +999,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>44.95831999634839</v>
+        <v>42.7768745569682</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +1013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,10 +1045,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1070,10 +1059,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1084,10 +1073,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1098,10 +1087,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1112,13 +1101,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1126,13 +1115,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1140,13 +1129,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1154,13 +1143,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1168,13 +1157,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1182,13 +1171,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
         <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1196,13 +1185,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1210,13 +1199,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1224,13 +1213,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -1238,99 +1227,15 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>6</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>6</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1444,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1455,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1466,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -1477,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1488,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>47.0449999999997</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1499,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>45.22499999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1510,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>46.65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -1521,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>51.52499999999971</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -1532,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>49.26499999999971</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -1543,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>132.1149999999988</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -1554,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>133.7649999999988</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -1565,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>121.5599999999988</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -1576,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>134.4949999999988</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1587,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>132.0099999999988</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -1598,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>208.0049999999993</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
@@ -1609,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>209.4549999999994</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
@@ -1620,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>201.7599999999993</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25">
@@ -1631,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>214.75</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26">
@@ -1642,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>207.5749999999993</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27">
@@ -1653,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>217.3350000000007</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28">
@@ -1664,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>209.7150000000007</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
@@ -1675,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>213.5050000000006</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -1686,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>208.3850000000007</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
@@ -1697,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>217.2200000000007</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32">
@@ -1708,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>217.3350000000007</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -1719,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>209.7150000000007</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -1730,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>213.5050000000006</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35">
@@ -1741,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>208.3850000000007</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
@@ -1752,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>217.2200000000007</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -1763,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>208.0049999999993</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38">
@@ -1774,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>209.4549999999994</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39">
@@ -1785,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>201.7599999999993</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40">
@@ -1796,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>214.75</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41">
@@ -1807,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>207.5749999999993</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1854,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>117.3350000000007</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1865,7 +1770,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>109.7150000000007</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1876,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>113.5050000000006</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1887,7 +1792,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>108.3850000000007</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1898,7 +1803,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>117.2200000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1909,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>108.0049999999993</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -1920,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>109.4549999999994</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -1931,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>101.7599999999993</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -1942,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>114.75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -1953,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>107.5749999999993</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2011,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2022,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2033,7 +1938,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2044,7 +1949,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2055,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2066,7 +1971,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2077,7 +1982,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2088,7 +1993,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2099,7 +2004,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2278,7 +2183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2305,7 +2210,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2316,7 +2221,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2327,7 +2232,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2338,7 +2243,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2349,10 +2254,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2360,10 +2265,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2371,10 +2276,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2382,10 +2287,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2393,10 +2298,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2404,10 +2309,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2415,10 +2320,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2426,10 +2331,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2437,10 +2342,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2448,78 +2353,12 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
